--- a/TestData/AccountCreationBillTo.xlsx
+++ b/TestData/AccountCreationBillTo.xlsx
@@ -82,10 +82,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>AccName_Automation_Billto_103</t>
-  </si>
-  <si>
-    <t>AccName_Automation_Shipto_103</t>
+    <t>AccName_Automation_Billto_126</t>
+  </si>
+  <si>
+    <t>AccName_Automation_Shipto_126</t>
   </si>
   <si>
     <t>PLNA</t>
@@ -163,10 +163,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="346" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="344" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="347" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="345" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="2324" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="2322" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="2325" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="2323" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="9" formatCode="0%"/>
   </numFmts>
   <fonts count="5">
@@ -250,10 +250,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="346" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="344" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="347" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="345" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2324" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2322" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2325" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="2323" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyFont="1" applyFill="1"/>
@@ -425,7 +425,7 @@
         <v>37</v>
       </c>
       <c r="T2" s="22">
-        <v>10000233</v>
+        <v>10000279</v>
       </c>
       <c r="U2" s="22" t="s">
         <v>38</v>
